--- a/UG/calculus 1/B posttest calculus 1.xlsx
+++ b/UG/calculus 1/B posttest calculus 1.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrolealdino/GitHub/Evaluation/UG/calculus 1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -90,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,22 +143,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -158,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -180,6 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,23 +472,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="U1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -538,7 +550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -597,11 +609,15 @@
         <f>SUM(D3:R3)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="9">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3">
+        <f>U3*100</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -660,11 +676,15 @@
         <f t="shared" ref="S4:S12" si="0">SUM(D4:R4)</f>
         <v>4</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="9">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <f t="shared" ref="V4:V12" si="1">U4*100</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -723,11 +743,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="9">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -784,11 +808,15 @@
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="9">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -847,11 +875,15 @@
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="9">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>28.999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -910,11 +942,15 @@
         <f t="shared" si="0"/>
         <v>7.25</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="9">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -973,11 +1009,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="9">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1036,11 +1076,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="9">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1099,11 +1143,15 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="9">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1162,11 +1210,15 @@
         <f t="shared" si="0"/>
         <v>9.75</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="9">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1188,7 +1240,7 @@
       <c r="S13" s="3"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1210,7 +1262,7 @@
       <c r="S14" s="3"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1232,7 +1284,7 @@
       <c r="S15" s="3"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1254,7 +1306,7 @@
       <c r="S16" s="3"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
@@ -1276,7 +1328,7 @@
       <c r="S17" s="3"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
@@ -1298,7 +1350,7 @@
       <c r="S18" s="3"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
@@ -1320,7 +1372,7 @@
       <c r="S19" s="3"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
@@ -1342,7 +1394,7 @@
       <c r="S20" s="3"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
@@ -1364,7 +1416,7 @@
       <c r="S21" s="3"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
@@ -1386,7 +1438,7 @@
       <c r="S22" s="3"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
@@ -1408,7 +1460,7 @@
       <c r="S23" s="3"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
@@ -1430,7 +1482,7 @@
       <c r="S24" s="3"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="5"/>
@@ -1452,7 +1504,7 @@
       <c r="S25" s="3"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
